--- a/Complexity Analysis.xlsx
+++ b/Complexity Analysis.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Captures</t>
   </si>
@@ -31,21 +31,6 @@
   </si>
   <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0 \\ \hline</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2 \\ \hline</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5 \\ \hline</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 23 \\ \hline </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 33 \\ \hline</t>
   </si>
 </sst>
 </file>
@@ -120,270 +105,19 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.4550168182986608E-2"/>
-          <c:y val="2.8611157647847212E-2"/>
-          <c:w val="0.83686307840724206"/>
-          <c:h val="0.91452914130414553"/>
+          <c:x val="8.1587148917233121E-2"/>
+          <c:y val="6.4026474498102476E-2"/>
+          <c:w val="0.77150903083331535"/>
+          <c:h val="0.86446411603647744"/>
         </c:manualLayout>
       </c:layout>
-      <c:lineChart>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Messages</c:v>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$F$6:$F$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>750</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$J$6:$J$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>378</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1191</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2867</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4825</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Nlog(n)</c:v>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$F$6:$F$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>750</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$K$6:$K$14</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.6020599913279624</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.4948500216800942</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>26.020599913279625</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>84.948500216800937</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>599.48500216800937</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1349.4850021680095</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2156.2959475437751</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="45899776"/>
-        <c:axId val="45901312"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="45899776"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45901312"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="45901312"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="4000"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45899776"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
@@ -548,7 +282,6 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -556,11 +289,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="80816000"/>
-        <c:axId val="80814464"/>
+        <c:axId val="73983872"/>
+        <c:axId val="73986048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="80816000"/>
+        <c:axId val="73983872"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -568,6 +301,21 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Nº of Processes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
@@ -575,12 +323,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80814464"/>
+        <c:crossAx val="73986048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80814464"/>
+        <c:axId val="73986048"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -588,23 +336,38 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:title>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80816000"/>
+        <c:crossAx val="73983872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.87635962551171531"/>
+          <c:y val="0.44330522768504976"/>
+          <c:w val="0.10783970599846396"/>
+          <c:h val="0.10791758919143744"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400"/>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -622,46 +385,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>14286</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -674,7 +407,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -970,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E5:L31"/>
+  <dimension ref="E5:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E37" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1053,7 +786,7 @@
         <v>24</v>
       </c>
       <c r="J8">
-        <f t="shared" ref="J7:J14" si="1">SUM(G8:I8)</f>
+        <f t="shared" ref="J8:J14" si="1">SUM(G8:I8)</f>
         <v>48</v>
       </c>
       <c r="K8" s="3">
@@ -1193,265 +926,35 @@
         <v>2156.2959475437751</v>
       </c>
     </row>
-    <row r="22" spans="5:12">
-      <c r="E22" s="1">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>2</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="5:12">
-      <c r="E23" s="1">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>5</v>
-      </c>
-      <c r="H23">
-        <v>8</v>
-      </c>
-      <c r="I23">
-        <v>8</v>
-      </c>
-      <c r="J23">
-        <v>3</v>
-      </c>
-      <c r="K23">
-        <v>11</v>
-      </c>
-      <c r="L23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="5:12">
-      <c r="E24" s="1">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>2</v>
-      </c>
-      <c r="G24">
-        <v>10</v>
-      </c>
-      <c r="H24">
-        <v>17</v>
-      </c>
-      <c r="I24">
-        <v>17</v>
-      </c>
-      <c r="J24">
-        <v>7</v>
-      </c>
-      <c r="K24">
-        <v>24</v>
-      </c>
-      <c r="L24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="5:12">
-      <c r="E25" s="1">
-        <v>4</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>10</v>
-      </c>
-      <c r="H25">
-        <v>16</v>
-      </c>
-      <c r="I25">
-        <v>16</v>
-      </c>
-      <c r="J25">
-        <v>9</v>
-      </c>
-      <c r="K25">
-        <v>25</v>
-      </c>
-      <c r="L25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="5:12">
-      <c r="E26" s="1">
-        <v>5</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>20</v>
-      </c>
-      <c r="H26">
-        <v>35</v>
-      </c>
-      <c r="I26">
-        <v>35</v>
-      </c>
-      <c r="J26">
-        <v>16</v>
-      </c>
-      <c r="K26">
-        <v>51</v>
-      </c>
-      <c r="L26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="5:12">
-      <c r="E27" s="1">
-        <v>6</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>50</v>
-      </c>
-      <c r="H27">
-        <v>55</v>
-      </c>
-      <c r="I27">
-        <v>55</v>
-      </c>
-      <c r="J27">
-        <v>6</v>
-      </c>
-      <c r="K27">
-        <v>61</v>
-      </c>
-      <c r="L27" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="5:12">
-      <c r="E28" s="1">
-        <v>7</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>100</v>
-      </c>
-      <c r="H28">
-        <v>143</v>
-      </c>
-      <c r="I28">
-        <v>145</v>
-      </c>
-      <c r="J28">
-        <v>45</v>
-      </c>
-      <c r="K28">
-        <v>188</v>
-      </c>
-      <c r="L28" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="5:12">
-      <c r="E29" s="1">
-        <v>8</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>250</v>
-      </c>
-      <c r="H29">
-        <v>419</v>
-      </c>
-      <c r="I29">
-        <v>424</v>
-      </c>
-      <c r="J29">
-        <v>174</v>
-      </c>
-      <c r="K29">
-        <v>593</v>
-      </c>
-      <c r="L29" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="5:12">
-      <c r="E30" s="1">
-        <v>9</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>500</v>
-      </c>
-      <c r="H30">
-        <v>949</v>
-      </c>
-      <c r="I30">
-        <v>972</v>
-      </c>
-      <c r="J30">
-        <v>473</v>
-      </c>
-      <c r="K30">
-        <v>1422</v>
-      </c>
-      <c r="L30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="5:12">
-      <c r="E31" s="2">
-        <v>10</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>750</v>
-      </c>
-      <c r="H31">
-        <v>1555</v>
-      </c>
-      <c r="I31">
-        <v>1588</v>
-      </c>
-      <c r="J31">
-        <v>841</v>
-      </c>
-      <c r="K31">
-        <v>2396</v>
-      </c>
-      <c r="L31" t="s">
-        <v>9</v>
-      </c>
+    <row r="22" spans="5:5">
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="5:5">
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="5:5">
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="5:5">
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="5:5">
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="5:5">
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="5:5">
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="5:5">
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="5:5">
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="5:5">
+      <c r="E31" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Complexity Analysis.xlsx
+++ b/Complexity Analysis.xlsx
@@ -16,21 +16,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Captures</t>
-  </si>
-  <si>
-    <t>Kills</t>
-  </si>
-  <si>
-    <t>Acks</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>Nlog(N)</t>
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0 \\ \hline</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 \\ \hline</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3 \\ \hline</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7 \\ \hline </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11 \\ \hline</t>
   </si>
 </sst>
 </file>
@@ -112,9 +118,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.1587148917233121E-2"/>
-          <c:y val="6.4026474498102476E-2"/>
-          <c:w val="0.77150903083331535"/>
+          <c:x val="7.626793991176635E-2"/>
+          <c:y val="6.4026518597525908E-2"/>
+          <c:w val="0.7332234968756246"/>
           <c:h val="0.86446411603647744"/>
         </c:manualLayout>
       </c:layout>
@@ -127,9 +133,19 @@
           <c:tx>
             <c:v>Messages</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$F$6:$F$14</c:f>
+              <c:f>Sheet1!$I$6:$I$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -173,28 +189,28 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>48</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>102</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>122</c:v>
+                  <c:v>163</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>378</c:v>
+                  <c:v>423</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1191</c:v>
+                  <c:v>1396</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2867</c:v>
+                  <c:v>2375</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4825</c:v>
+                  <c:v>4556</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -207,9 +223,19 @@
           <c:tx>
             <c:v>NlogN</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$F$6:$F$14</c:f>
+              <c:f>Sheet1!$I$6:$I$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -289,11 +315,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="73983872"/>
-        <c:axId val="73986048"/>
+        <c:axId val="73428992"/>
+        <c:axId val="73430912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="73983872"/>
+        <c:axId val="73428992"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -323,52 +349,27 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73986048"/>
+        <c:crossAx val="73430912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="73986048"/>
+        <c:axId val="73430912"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73983872"/>
+        <c:crossAx val="73428992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.87635962551171531"/>
-          <c:y val="0.44330522768504976"/>
-          <c:w val="0.10783970599846396"/>
-          <c:h val="0.10791758919143744"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400"/>
-          </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -378,6 +379,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -385,16 +387,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -414,6 +416,73 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.78527</cdr:x>
+      <cdr:y>0.08566</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.94507</cdr:x>
+      <cdr:y>0.20916</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5991226" y="409575"/>
+          <a:ext cx="1219200" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1400">
+              <a:latin typeface="Bookman Old Style" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Messages</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="pt-PT" sz="500">
+            <a:latin typeface="Bookman Old Style" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1400">
+              <a:latin typeface="Bookman Old Style" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>n</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1400" baseline="0">
+              <a:latin typeface="Bookman Old Style" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1400">
+              <a:latin typeface="Bookman Old Style" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>log(n)</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -703,264 +772,399 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E5:K31"/>
+  <dimension ref="A5:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="5" spans="6:11">
-      <c r="G5" t="s">
+    <row r="5" spans="9:11">
+      <c r="J5" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
         <v>0</v>
       </c>
-      <c r="H5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
+    </row>
+    <row r="6" spans="9:11">
+      <c r="I6">
         <v>2</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6" s="3">
+        <f>I6*LOG10(I6)</f>
+        <v>0.6020599913279624</v>
+      </c>
+    </row>
+    <row r="7" spans="9:11">
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>8</v>
+      </c>
+      <c r="K7" s="3">
+        <f>I7*LOG10(I7)</f>
+        <v>3.4948500216800942</v>
+      </c>
+    </row>
+    <row r="8" spans="9:11">
+      <c r="I8">
+        <v>10</v>
+      </c>
+      <c r="J8">
+        <v>33</v>
+      </c>
+      <c r="K8" s="3">
+        <f>I8*LOG10(I8)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="9:11">
+      <c r="I9">
+        <v>20</v>
+      </c>
+      <c r="J9">
+        <v>93</v>
+      </c>
+      <c r="K9" s="3">
+        <f>I9*LOG10(I9)</f>
+        <v>26.020599913279625</v>
+      </c>
+    </row>
+    <row r="10" spans="9:11">
+      <c r="I10">
+        <v>50</v>
+      </c>
+      <c r="J10">
+        <v>163</v>
+      </c>
+      <c r="K10" s="3">
+        <f>I10*LOG10(I10)</f>
+        <v>84.948500216800937</v>
+      </c>
+    </row>
+    <row r="11" spans="9:11">
+      <c r="I11">
+        <v>100</v>
+      </c>
+      <c r="J11">
+        <v>423</v>
+      </c>
+      <c r="K11" s="3">
+        <f>I11*LOG10(I11)</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="9:11">
+      <c r="I12">
+        <v>250</v>
+      </c>
+      <c r="J12">
+        <v>1396</v>
+      </c>
+      <c r="K12" s="3">
+        <f>I12*LOG10(I12)</f>
+        <v>599.48500216800937</v>
+      </c>
+    </row>
+    <row r="13" spans="9:11">
+      <c r="I13">
+        <v>500</v>
+      </c>
+      <c r="J13">
+        <v>2375</v>
+      </c>
+      <c r="K13" s="3">
+        <f>I13*LOG10(I13)</f>
+        <v>1349.4850021680095</v>
+      </c>
+    </row>
+    <row r="14" spans="9:11">
+      <c r="I14">
+        <v>750</v>
+      </c>
+      <c r="J14">
+        <v>4556</v>
+      </c>
+      <c r="K14" s="3">
+        <f>I14*LOG10(I14)</f>
+        <v>2156.2959475437751</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24">
         <v>4</v>
       </c>
-      <c r="K5" t="s">
+      <c r="E24" s="1">
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>4</v>
+      </c>
+      <c r="H24">
+        <v>8</v>
+      </c>
+      <c r="I24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>10</v>
+      </c>
+      <c r="D25">
+        <v>13</v>
+      </c>
+      <c r="E25" s="1">
+        <v>13</v>
+      </c>
+      <c r="F25">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="6:11">
-      <c r="F6">
+      <c r="G25">
+        <v>16</v>
+      </c>
+      <c r="H25">
+        <v>33</v>
+      </c>
+      <c r="I25" t="s">
         <v>2</v>
       </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <f>SUM(G6:I6)</f>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>20</v>
+      </c>
+      <c r="D26">
+        <v>30</v>
+      </c>
+      <c r="E26" s="1">
+        <v>30</v>
+      </c>
+      <c r="F26">
+        <v>10</v>
+      </c>
+      <c r="G26">
+        <v>40</v>
+      </c>
+      <c r="H26">
+        <v>93</v>
+      </c>
+      <c r="I26" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="3">
-        <f>F6*LOG10(F6)</f>
-        <v>0.6020599913279624</v>
-      </c>
-    </row>
-    <row r="7" spans="6:11">
-      <c r="F7">
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="1">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>50</v>
+      </c>
+      <c r="D27">
+        <v>65</v>
+      </c>
+      <c r="E27" s="1">
+        <v>65</v>
+      </c>
+      <c r="F27">
+        <v>15</v>
+      </c>
+      <c r="G27">
+        <v>79</v>
+      </c>
+      <c r="H27">
+        <v>163</v>
+      </c>
+      <c r="I27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="1">
+        <v>7</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>100</v>
+      </c>
+      <c r="D28">
+        <v>151</v>
+      </c>
+      <c r="E28" s="1">
+        <v>151</v>
+      </c>
+      <c r="F28">
+        <v>51</v>
+      </c>
+      <c r="G28">
+        <v>199</v>
+      </c>
+      <c r="H28">
+        <v>423</v>
+      </c>
+      <c r="I28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="1">
+        <v>8</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>250</v>
+      </c>
+      <c r="D29">
+        <v>421</v>
+      </c>
+      <c r="E29" s="1">
+        <v>421</v>
+      </c>
+      <c r="F29">
+        <v>171</v>
+      </c>
+      <c r="G29">
+        <v>589</v>
+      </c>
+      <c r="H29">
+        <v>1396</v>
+      </c>
+      <c r="I29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="1">
+        <v>9</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>500</v>
+      </c>
+      <c r="D30">
+        <v>773</v>
+      </c>
+      <c r="E30" s="2">
+        <v>773</v>
+      </c>
+      <c r="F30">
+        <v>274</v>
+      </c>
+      <c r="G30">
+        <v>1040</v>
+      </c>
+      <c r="H30">
+        <v>2375</v>
+      </c>
+      <c r="I30" t="s">
         <v>5</v>
       </c>
-      <c r="G7">
-        <v>8</v>
-      </c>
-      <c r="H7">
-        <v>3</v>
-      </c>
-      <c r="I7">
-        <v>11</v>
-      </c>
-      <c r="J7">
-        <f>SUM(G7:I7)</f>
-        <v>22</v>
-      </c>
-      <c r="K7" s="3">
-        <f t="shared" ref="K7:K14" si="0">F7*LOG10(F7)</f>
-        <v>3.4948500216800942</v>
-      </c>
-    </row>
-    <row r="8" spans="6:11">
-      <c r="F8">
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="2">
         <v>10</v>
       </c>
-      <c r="G8">
-        <v>17</v>
-      </c>
-      <c r="H8">
-        <v>7</v>
-      </c>
-      <c r="I8">
-        <v>24</v>
-      </c>
-      <c r="J8">
-        <f t="shared" ref="J8:J14" si="1">SUM(G8:I8)</f>
-        <v>48</v>
-      </c>
-      <c r="K8" s="3">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="6:11">
-      <c r="F9">
-        <v>20</v>
-      </c>
-      <c r="G9">
-        <v>35</v>
-      </c>
-      <c r="H9">
-        <v>16</v>
-      </c>
-      <c r="I9">
-        <v>51</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="1"/>
-        <v>102</v>
-      </c>
-      <c r="K9" s="3">
-        <f t="shared" si="0"/>
-        <v>26.020599913279625</v>
-      </c>
-    </row>
-    <row r="10" spans="6:11">
-      <c r="F10">
-        <v>50</v>
-      </c>
-      <c r="G10">
-        <v>55</v>
-      </c>
-      <c r="H10">
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>750</v>
+      </c>
+      <c r="D31">
+        <v>1354</v>
+      </c>
+      <c r="E31">
+        <v>1354</v>
+      </c>
+      <c r="F31">
+        <v>604</v>
+      </c>
+      <c r="G31">
+        <v>1947</v>
+      </c>
+      <c r="H31">
+        <v>4556</v>
+      </c>
+      <c r="I31" t="s">
         <v>6</v>
       </c>
-      <c r="I10">
-        <v>61</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="1"/>
-        <v>122</v>
-      </c>
-      <c r="K10" s="3">
-        <f t="shared" si="0"/>
-        <v>84.948500216800937</v>
-      </c>
-    </row>
-    <row r="11" spans="6:11">
-      <c r="F11">
-        <v>100</v>
-      </c>
-      <c r="G11">
-        <v>145</v>
-      </c>
-      <c r="H11">
-        <v>45</v>
-      </c>
-      <c r="I11">
-        <v>188</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="1"/>
-        <v>378</v>
-      </c>
-      <c r="K11" s="3">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="6:11">
-      <c r="F12">
-        <v>250</v>
-      </c>
-      <c r="G12">
-        <v>424</v>
-      </c>
-      <c r="H12">
-        <v>174</v>
-      </c>
-      <c r="I12">
-        <v>593</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="1"/>
-        <v>1191</v>
-      </c>
-      <c r="K12" s="3">
-        <f t="shared" si="0"/>
-        <v>599.48500216800937</v>
-      </c>
-    </row>
-    <row r="13" spans="6:11">
-      <c r="F13">
-        <v>500</v>
-      </c>
-      <c r="G13">
-        <v>972</v>
-      </c>
-      <c r="H13">
-        <v>473</v>
-      </c>
-      <c r="I13">
-        <v>1422</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="1"/>
-        <v>2867</v>
-      </c>
-      <c r="K13" s="3">
-        <f t="shared" si="0"/>
-        <v>1349.4850021680095</v>
-      </c>
-    </row>
-    <row r="14" spans="6:11">
-      <c r="F14">
-        <v>750</v>
-      </c>
-      <c r="G14">
-        <v>1588</v>
-      </c>
-      <c r="H14">
-        <v>841</v>
-      </c>
-      <c r="I14">
-        <v>2396</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="1"/>
-        <v>4825</v>
-      </c>
-      <c r="K14" s="3">
-        <f t="shared" si="0"/>
-        <v>2156.2959475437751</v>
-      </c>
-    </row>
-    <row r="22" spans="5:5">
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="5:5">
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="5:5">
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="5:5">
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="5:5">
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="5:5">
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="5:5">
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="5:5">
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="5:5">
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="5:5">
-      <c r="E31" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="J6 J15 J7:J14" formulaRange="1"/>
+    <ignoredError sqref="J15" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
